--- a/po_analysis_by_asin/B0D1RM2TQW_po_data.xlsx
+++ b/po_analysis_by_asin/B0D1RM2TQW_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>292</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>38</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>140</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>100</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>8</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>28</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>78</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45621</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>32</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>54</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>6</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>292</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>178</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>118</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>28</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>114</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>60</v>

--- a/po_analysis_by_asin/B0D1RM2TQW_po_data.xlsx
+++ b/po_analysis_by_asin/B0D1RM2TQW_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -639,6 +640,341 @@
       </c>
       <c r="B8" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C2" t="n">
+        <v>86.32039840406316</v>
+      </c>
+      <c r="D2" t="n">
+        <v>241.4657211561033</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>113</v>
+      </c>
+      <c r="C3" t="n">
+        <v>40.87944233256525</v>
+      </c>
+      <c r="D3" t="n">
+        <v>189.9480026388951</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>103</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.70960356221905</v>
+      </c>
+      <c r="D4" t="n">
+        <v>178.5612976636039</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>93</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.94877622095437</v>
+      </c>
+      <c r="D5" t="n">
+        <v>172.9265312655698</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>87</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.02618564546366</v>
+      </c>
+      <c r="D6" t="n">
+        <v>165.8646954511744</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>82</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.502573838945139</v>
+      </c>
+      <c r="D7" t="n">
+        <v>151.4792547454405</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>72</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.343649864918823</v>
+      </c>
+      <c r="D8" t="n">
+        <v>147.6313457802162</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-48.12413810585799</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100.5355105055991</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-48.07985590962944</v>
+      </c>
+      <c r="D10" t="n">
+        <v>102.1226578992086</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-59.7496387950542</v>
+      </c>
+      <c r="D11" t="n">
+        <v>93.91673511424047</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-64.72421625240871</v>
+      </c>
+      <c r="D12" t="n">
+        <v>87.51400622508515</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-74.42061590669395</v>
+      </c>
+      <c r="D13" t="n">
+        <v>81.11696716473858</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-77.79218877897264</v>
+      </c>
+      <c r="D14" t="n">
+        <v>70.53873962505652</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-87.39133993936474</v>
+      </c>
+      <c r="D15" t="n">
+        <v>63.63663030731895</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-90.64027212764627</v>
+      </c>
+      <c r="D16" t="n">
+        <v>65.23288415331317</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-93.75438026017692</v>
+      </c>
+      <c r="D17" t="n">
+        <v>65.41476181527206</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-93.04885413627662</v>
+      </c>
+      <c r="D18" t="n">
+        <v>52.0861104076117</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-103.4994917872546</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52.63444100115709</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-106.1124939887544</v>
+      </c>
+      <c r="D20" t="n">
+        <v>43.93625723626744</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-115.4684881030234</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.27394995736392</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-116.0343891069958</v>
+      </c>
+      <c r="D22" t="n">
+        <v>27.9730304621827</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D1RM2TQW_po_data.xlsx
+++ b/po_analysis_by_asin/B0D1RM2TQW_po_data.xlsx
@@ -653,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,16 +672,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -690,12 +680,6 @@
       <c r="B2" t="n">
         <v>165</v>
       </c>
-      <c r="C2" t="n">
-        <v>86.32039840406316</v>
-      </c>
-      <c r="D2" t="n">
-        <v>241.4657211561033</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -704,12 +688,6 @@
       <c r="B3" t="n">
         <v>113</v>
       </c>
-      <c r="C3" t="n">
-        <v>40.87944233256525</v>
-      </c>
-      <c r="D3" t="n">
-        <v>189.9480026388951</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -718,12 +696,6 @@
       <c r="B4" t="n">
         <v>103</v>
       </c>
-      <c r="C4" t="n">
-        <v>22.70960356221905</v>
-      </c>
-      <c r="D4" t="n">
-        <v>178.5612976636039</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -732,12 +704,6 @@
       <c r="B5" t="n">
         <v>93</v>
       </c>
-      <c r="C5" t="n">
-        <v>14.94877622095437</v>
-      </c>
-      <c r="D5" t="n">
-        <v>172.9265312655698</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -746,12 +712,6 @@
       <c r="B6" t="n">
         <v>87</v>
       </c>
-      <c r="C6" t="n">
-        <v>12.02618564546366</v>
-      </c>
-      <c r="D6" t="n">
-        <v>165.8646954511744</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -760,12 +720,6 @@
       <c r="B7" t="n">
         <v>82</v>
       </c>
-      <c r="C7" t="n">
-        <v>4.502573838945139</v>
-      </c>
-      <c r="D7" t="n">
-        <v>151.4792547454405</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -774,12 +728,6 @@
       <c r="B8" t="n">
         <v>72</v>
       </c>
-      <c r="C8" t="n">
-        <v>-1.343649864918823</v>
-      </c>
-      <c r="D8" t="n">
-        <v>147.6313457802162</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -788,12 +736,6 @@
       <c r="B9" t="n">
         <v>30</v>
       </c>
-      <c r="C9" t="n">
-        <v>-48.12413810585799</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100.5355105055991</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -802,12 +744,6 @@
       <c r="B10" t="n">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
-        <v>-48.07985590962944</v>
-      </c>
-      <c r="D10" t="n">
-        <v>102.1226578992086</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -816,12 +752,6 @@
       <c r="B11" t="n">
         <v>15</v>
       </c>
-      <c r="C11" t="n">
-        <v>-59.7496387950542</v>
-      </c>
-      <c r="D11" t="n">
-        <v>93.91673511424047</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -830,12 +760,6 @@
       <c r="B12" t="n">
         <v>9</v>
       </c>
-      <c r="C12" t="n">
-        <v>-64.72421625240871</v>
-      </c>
-      <c r="D12" t="n">
-        <v>87.51400622508515</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -844,12 +768,6 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
-        <v>-74.42061590669395</v>
-      </c>
-      <c r="D13" t="n">
-        <v>81.11696716473858</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -858,12 +776,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>-77.79218877897264</v>
-      </c>
-      <c r="D14" t="n">
-        <v>70.53873962505652</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -872,12 +784,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>-87.39133993936474</v>
-      </c>
-      <c r="D15" t="n">
-        <v>63.63663030731895</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -886,12 +792,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>-90.64027212764627</v>
-      </c>
-      <c r="D16" t="n">
-        <v>65.23288415331317</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -900,12 +800,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>-93.75438026017692</v>
-      </c>
-      <c r="D17" t="n">
-        <v>65.41476181527206</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -914,12 +808,6 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>-93.04885413627662</v>
-      </c>
-      <c r="D18" t="n">
-        <v>52.0861104076117</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -928,12 +816,6 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>-103.4994917872546</v>
-      </c>
-      <c r="D19" t="n">
-        <v>52.63444100115709</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -942,12 +824,6 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>-106.1124939887544</v>
-      </c>
-      <c r="D20" t="n">
-        <v>43.93625723626744</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -956,12 +832,6 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>-115.4684881030234</v>
-      </c>
-      <c r="D21" t="n">
-        <v>36.27394995736392</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -969,12 +839,6 @@
       </c>
       <c r="B22" t="n">
         <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-116.0343891069958</v>
-      </c>
-      <c r="D22" t="n">
-        <v>27.9730304621827</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D1RM2TQW_po_data.xlsx
+++ b/po_analysis_by_asin/B0D1RM2TQW_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,30 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -566,7 +590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,6 +666,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -653,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +710,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
@@ -686,7 +718,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
@@ -694,7 +726,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -702,7 +734,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -710,7 +742,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -718,7 +750,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -726,7 +758,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -734,7 +766,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -742,7 +774,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -750,7 +782,7 @@
         <v>45620.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +790,7 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -766,7 +798,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -774,12 +806,12 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -787,7 +819,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -795,7 +827,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -803,7 +835,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -811,7 +843,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -819,7 +851,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -827,7 +859,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -835,9 +867,33 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B25" t="n">
         <v>0</v>
       </c>
     </row>
